--- a/document/甘特圖.xlsx
+++ b/document/甘特圖.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rinatalin/Desktop/NTUB-ESN/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F895F-5C1C-7E48-97CD-C4F1FDCF5CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDD4689-7D96-4A45-B733-832C8E840EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{517820A5-EBDA-4317-B7A3-3FAEFAF107C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{517820A5-EBDA-4317-B7A3-3FAEFAF107C1}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,19 +93,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海報</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心得影片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡介影片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,19 +135,30 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="BiauKaiTC Regular"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -211,33 +210,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B04A293B-D219-4301-B036-57780CDDCF26}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -565,80 +567,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="9">
         <v>112</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9">
         <v>113</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="20">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="8">
         <v>11</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="8">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="8">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="8">
         <v>3</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="8">
         <v>4</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="8">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="8">
         <v>6</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="8">
         <v>7</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="8">
         <v>8</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="8">
         <v>9</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="8">
         <v>10</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="8">
         <v>11</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" ht="20">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -651,36 +653,36 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
+      <c r="O3" s="2"/>
+      <c r="P3" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20">
       <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="1" t="s">
-        <v>19</v>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -698,32 +700,32 @@
     </row>
     <row r="6" spans="1:16" ht="20">
       <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" ht="20">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -736,35 +738,35 @@
     </row>
     <row r="8" spans="1:16" ht="20">
       <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" ht="20">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -774,28 +776,28 @@
     </row>
     <row r="10" spans="1:16" ht="20">
       <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" ht="20">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -812,28 +814,28 @@
     </row>
     <row r="12" spans="1:16" ht="20">
       <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" ht="20">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -850,35 +852,35 @@
     </row>
     <row r="14" spans="1:16" ht="20">
       <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" ht="20">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -888,36 +890,36 @@
     </row>
     <row r="16" spans="1:16" ht="20">
       <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" ht="20">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -926,24 +928,24 @@
     </row>
     <row r="18" spans="1:16" ht="20">
       <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" ht="20">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1"/>
@@ -952,11 +954,11 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -964,24 +966,24 @@
     </row>
     <row r="20" spans="1:16" ht="20">
       <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" ht="20">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="1"/>
@@ -993,8 +995,8 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -1002,24 +1004,24 @@
     </row>
     <row r="22" spans="1:16" ht="20">
       <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" ht="20">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1"/>
@@ -1028,40 +1030,40 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="2"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" ht="20">
       <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" ht="20">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1071,35 +1073,35 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" ht="20">
       <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" ht="20">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1109,155 +1111,55 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="5"/>
+      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="20">
+    <row r="28" spans="1:16" ht="18" customHeight="1">
       <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
     <row r="29" spans="1:16" ht="20">
-      <c r="A29" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" ht="20">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:16" ht="20">
-      <c r="A31" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="20">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:16" ht="20">
-      <c r="A33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="1"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="15:16" ht="20">
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="20">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+    <row r="34" spans="15:16" ht="20">
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:N1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
+  <mergeCells count="15">
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A23:A24"/>
@@ -1266,6 +1168,13 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
